--- a/regras.xlsx
+++ b/regras.xlsx
@@ -14,7 +14,7 @@
     <sheet name="452D" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t xml:space="preserve">COMM </t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>TVA/FB,TVAFB</t>
+  </si>
+  <si>
+    <t>divers</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -336,6 +339,20 @@
       <color rgb="FF2A3136"/>
       <name val="OpenSans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,11 +511,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -603,9 +628,20 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,7 +981,7 @@
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1079,7 +1115,7 @@
       <c r="C10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="23">
         <v>66790000</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -1169,7 +1205,7 @@
       <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="52">
         <v>66782000</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -1180,6 +1216,12 @@
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1197,7 +1239,7 @@
       <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="52">
         <v>48130071</v>
       </c>
       <c r="E19" s="18" t="s">
@@ -1284,6 +1326,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
